--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/E-エラーメッセージ確認クライアント.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/E-エラーメッセージ確認クライアント.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CADBC7-F8C4-4F4B-B8AF-B3AF4894AE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE91C468-491E-405C-B2BE-901C606A7193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="4" xr2:uid="{740929AA-53DE-4743-B1B7-25B0926FE1E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="3" activeTab="4" xr2:uid="{740929AA-53DE-4743-B1B7-25B0926FE1E0}"/>
   </bookViews>
   <sheets>
     <sheet name="UT-USER02-E-002" sheetId="1" r:id="rId1"/>
     <sheet name="UT-USER02-E-004" sheetId="2" r:id="rId2"/>
     <sheet name="UT-USER02-E-006" sheetId="3" r:id="rId3"/>
     <sheet name="UT-USER02-E-008" sheetId="4" r:id="rId4"/>
-    <sheet name="UT-USER02-E-009～UT-USER02-E-014" sheetId="9" r:id="rId5"/>
+    <sheet name="UT-USER02-E-010、012、014" sheetId="9" r:id="rId5"/>
     <sheet name="UT-USER02-E-016" sheetId="5" r:id="rId6"/>
     <sheet name="UT-USER02-E-018" sheetId="6" r:id="rId7"/>
     <sheet name="UT-USER02-E-020" sheetId="7" r:id="rId8"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/E-エラーメッセージ確認クライアント.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/E-エラーメッセージ確認クライアント.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE91C468-491E-405C-B2BE-901C606A7193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DBFBC7-F576-4BBE-B7C6-6378312164C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="3" activeTab="4" xr2:uid="{740929AA-53DE-4743-B1B7-25B0926FE1E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="5" activeTab="8" xr2:uid="{740929AA-53DE-4743-B1B7-25B0926FE1E0}"/>
   </bookViews>
   <sheets>
     <sheet name="UT-USER02-E-002" sheetId="1" r:id="rId1"/>
@@ -115,10 +115,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15485</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>183821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -142,7 +142,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11674085" cy="6619875"/>
+          <a:ext cx="14601825" cy="8280071"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -153,16 +153,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -177,8 +177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5438775" y="390525"/>
-          <a:ext cx="2076450" cy="361950"/>
+          <a:off x="6819899" y="514350"/>
+          <a:ext cx="2486025" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -214,74 +214,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>230642</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>182130</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8AF13BB-50B0-B3CF-0B6E-1E6EE33EAD07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="14632442" cy="8278380"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AF848F-3CEE-966C-42FB-D3BDA9F886F3}"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4CE63D-7F9A-4881-B16B-8AAB94EAB166}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -289,8 +240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6638925" y="514350"/>
-          <a:ext cx="2962275" cy="390525"/>
+          <a:off x="6657974" y="1219200"/>
+          <a:ext cx="2924175" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -329,7 +280,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -340,16 +291,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>221116</xdr:colOff>
+      <xdr:colOff>230642</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>191657</xdr:rowOff>
+      <xdr:rowOff>182130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85AC1BC7-8850-DA62-4569-C1143E756FFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8AF13BB-50B0-B3CF-0B6E-1E6EE33EAD07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -366,7 +317,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14622916" cy="8287907"/>
+          <a:ext cx="14632442" cy="8278380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -378,13 +329,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -393,7 +344,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9FBB8B-1875-A698-78F7-3DB17093E1E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AF848F-3CEE-966C-42FB-D3BDA9F886F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -401,8 +352,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="571500"/>
-          <a:ext cx="2486025" cy="333375"/>
+          <a:off x="6638925" y="514350"/>
+          <a:ext cx="2962275" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -438,74 +389,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>230642</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>182130</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CB38C-89B0-1D5D-E140-1319C627CF93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="14632442" cy="8278380"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068C7564-13A6-A8C0-C952-D71617D48E71}"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C115C5B-92C8-41AA-B17F-D641748DBB64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -513,8 +415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6915150" y="552450"/>
-          <a:ext cx="2352675" cy="333375"/>
+          <a:off x="6696075" y="1943100"/>
+          <a:ext cx="2819400" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -553,7 +455,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -564,16 +466,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>230642</xdr:colOff>
+      <xdr:colOff>221116</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>172604</xdr:rowOff>
+      <xdr:rowOff>191657</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6F19B5-82C1-E0BC-1EE4-469A67B92ACF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85AC1BC7-8850-DA62-4569-C1143E756FFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -590,7 +492,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14632442" cy="8268854"/>
+          <a:ext cx="14622916" cy="8287907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -602,22 +504,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E083986-A080-0145-1BDF-81BCD269AA25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9FBB8B-1875-A698-78F7-3DB17093E1E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -625,8 +527,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6762750" y="552450"/>
-          <a:ext cx="2638425" cy="323850"/>
+          <a:off x="6838950" y="571500"/>
+          <a:ext cx="2486025" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -662,74 +564,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>230642</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>220236</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1423973A-098E-FBC0-D5AC-6BAC8F371A7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="14632442" cy="8316486"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F7C100-60E2-A43D-DB7A-7A2E43658733}"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0E53C2E-1216-4B57-A5DC-1C20E60138B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -737,8 +590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6877050" y="590550"/>
-          <a:ext cx="2381250" cy="314325"/>
+          <a:off x="6667500" y="2533650"/>
+          <a:ext cx="2838450" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -777,7 +630,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -790,14 +643,14 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>230642</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>201183</xdr:rowOff>
+      <xdr:rowOff>182130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F953467C-7FC2-735A-812B-9ED98C79FF6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CB38C-89B0-1D5D-E140-1319C627CF93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -814,7 +667,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14632442" cy="8297433"/>
+          <a:ext cx="14632442" cy="8278380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -825,23 +678,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB772E3-2A26-6B29-0AF9-1D77F2F0DE8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068C7564-13A6-A8C0-C952-D71617D48E71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -849,8 +702,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6543675" y="533400"/>
-          <a:ext cx="3114675" cy="381000"/>
+          <a:off x="6915150" y="552450"/>
+          <a:ext cx="2352675" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -886,74 +739,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>230642</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>191657</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870E1B17-8C0D-8D30-6090-587516D43DDD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="14632442" cy="8287907"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51ED9878-53AD-2B60-88E4-B597E8E1B733}"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C2EC67-31AD-413E-A900-6352ECBAA153}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -961,8 +765,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6810375" y="590550"/>
-          <a:ext cx="2505075" cy="276225"/>
+          <a:off x="6705599" y="3105150"/>
+          <a:ext cx="2867025" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1001,7 +805,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1013,15 +817,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>230642</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>67881</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172604</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9A91DD-560E-453D-1F61-E974EA042E87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6F19B5-82C1-E0BC-1EE4-469A67B92ACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,6 +842,706 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
+          <a:ext cx="14632442" cy="8268854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E083986-A080-0145-1BDF-81BCD269AA25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="552450"/>
+          <a:ext cx="2638425" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5C9108-652F-4FF8-9602-051B0B35DF28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6677025" y="3762375"/>
+          <a:ext cx="2895600" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>230642</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>220236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1423973A-098E-FBC0-D5AC-6BAC8F371A7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14632442" cy="8316486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F7C100-60E2-A43D-DB7A-7A2E43658733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="590550"/>
+          <a:ext cx="2381250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB24867F-67AC-49EA-B036-94C30F1770B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657974" y="5029199"/>
+          <a:ext cx="2905125" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>230642</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>201183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F953467C-7FC2-735A-812B-9ED98C79FF6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14632442" cy="8297433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB772E3-2A26-6B29-0AF9-1D77F2F0DE8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6543675" y="533400"/>
+          <a:ext cx="3114675" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD773664-F269-4741-9348-7A5C405A9FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657975" y="1219200"/>
+          <a:ext cx="2895600" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>230642</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>191657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870E1B17-8C0D-8D30-6090-587516D43DDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14632442" cy="8287907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51ED9878-53AD-2B60-88E4-B597E8E1B733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="590550"/>
+          <a:ext cx="2505075" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4DB721-B8E4-46A4-BB50-AB3E090EE63D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6677025" y="2495550"/>
+          <a:ext cx="2886075" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>230642</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>67881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9A91DD-560E-453D-1F61-E974EA042E87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="14632442" cy="8640381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1075,6 +1579,69 @@
         <a:xfrm>
           <a:off x="5162550" y="38100"/>
           <a:ext cx="4276725" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D470AE0-C2F3-4855-8FBC-99CCC73B25D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657974" y="3848100"/>
+          <a:ext cx="2905125" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1412,7 +1979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0B9B6B-F4FE-434C-9D89-EC97D8F28E4D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -1426,7 +1993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E60F99F-A46F-4FAA-A524-003687E19C1E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -1440,7 +2007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A57340B-9094-4D6E-A690-6A76E9846168}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -1454,7 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5536B44-6F35-4C5C-82F9-349E959CC8CC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -1468,7 +2035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A3DA00-6944-4AF2-BA89-91D4F4F19877}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -1524,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFE4242-EA83-40CD-BD16-47F9E507926B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/E-エラーメッセージ確認クライアント.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/E-エラーメッセージ確認クライアント.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DBFBC7-F576-4BBE-B7C6-6378312164C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A11A3A-7BC8-4F83-ACAB-31DFAEA52044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="5" activeTab="8" xr2:uid="{740929AA-53DE-4743-B1B7-25B0926FE1E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="5" activeTab="6" xr2:uid="{740929AA-53DE-4743-B1B7-25B0926FE1E0}"/>
   </bookViews>
   <sheets>
     <sheet name="UT-USER02-E-002" sheetId="1" r:id="rId1"/>
@@ -1672,6 +1672,81 @@
         <a:lstStyle/>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C06F6B6-5F73-10AB-20B1-162C4734A319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306049" y="1066801"/>
+          <a:ext cx="2371725" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -83209"/>
+            <a:gd name="adj2" fmla="val -54847"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エラーメッセージが表示されず</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>confirm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メッセージが表示される</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2063,7 +2138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F510F30-59B5-4B27-9B48-541E51C4C33A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -2091,7 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFE4242-EA83-40CD-BD16-47F9E507926B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/E-エラーメッセージ確認クライアント.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/E-エラーメッセージ確認クライアント.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A11A3A-7BC8-4F83-ACAB-31DFAEA52044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E1901-1FFE-4671-AC14-1031B7C58EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="5" activeTab="6" xr2:uid="{740929AA-53DE-4743-B1B7-25B0926FE1E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="5" activeTab="8" xr2:uid="{740929AA-53DE-4743-B1B7-25B0926FE1E0}"/>
   </bookViews>
   <sheets>
     <sheet name="UT-USER02-E-002" sheetId="1" r:id="rId1"/>
@@ -2138,7 +2138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F510F30-59B5-4B27-9B48-541E51C4C33A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -2166,7 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFE4242-EA83-40CD-BD16-47F9E507926B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
